--- a/Documents/External/6.0.0/ConsumerCare-Android_OpenSourceSoftware for IP Assessment_Form.xlsx
+++ b/Documents/External/6.0.0/ConsumerCare-Android_OpenSourceSoftware for IP Assessment_Form.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeRepository\ConsumerCare_develop\Documents\External\5.2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeRepository\ConsumerCare\consumer_care_android\Documents\External\6.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="465" windowWidth="21840" windowHeight="13740"/>
+    <workbookView xWindow="2100" yWindow="465" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t xml:space="preserve">Open Source Software  List  </t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t># of different relevant license contracts</t>
-  </si>
-  <si>
-    <t>Template 1.1  ver Aug 2010</t>
   </si>
   <si>
     <t xml:space="preserve">the undesigned on the left warrants that (s)he is aware of the definition of Open Source Software and that, on behalf of the supplier, (s)he further warrant the the information provide herein is complete and correct as on signature date, and any changes after signature date will be communicated to Philips as soon as implemented </t>
@@ -311,21 +308,144 @@
     <t>Product Selection</t>
   </si>
   <si>
-    <t>http://pww.cljenkins.pic.philips.com:8080/view/Horizontal/job/hor-productselection-android/</t>
-  </si>
-  <si>
     <t>http://pww.cljenkins.pic.philips.com:8080/view/Horizontal/job/Hor_PRX_Component_Android/</t>
   </si>
   <si>
     <t>http://pww.cljenkins.pic.philips.com:8080/view/All/job/hor-localematch-android/</t>
   </si>
   <si>
-    <t>ritesh.jha@philips.com &amp; naveen@philips.com</t>
+    <t>For memory leaks</t>
+  </si>
+  <si>
+    <t>Part of IDE</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OCUnit</t>
+  </si>
+  <si>
+    <t>Unit test (iOS)</t>
+  </si>
+  <si>
+    <t>Xcode</t>
+  </si>
+  <si>
+    <t>IDE for iOS</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>Calabash-ios</t>
+  </si>
+  <si>
+    <t>https://github.com/calabash/calabash-ios</t>
+  </si>
+  <si>
+    <t>https://github.com/calabash/calabash-ios/blob/develop/LICENSE</t>
+  </si>
+  <si>
+    <t>MBProgressHUD</t>
+  </si>
+  <si>
+    <t>UIComponent for Progressbar</t>
+  </si>
+  <si>
+    <t>https://github.com/jdg/MBProgressHUD.git</t>
+  </si>
+  <si>
+    <t>AFNetworking</t>
+  </si>
+  <si>
+    <t>Component for Network Operations</t>
+  </si>
+  <si>
+    <t>https://github.com/AFNetworking/AFNetworking.git</t>
+  </si>
+  <si>
+    <t>Adobe Mobile Library</t>
+  </si>
+  <si>
+    <t>Component for app tagging</t>
+  </si>
+  <si>
+    <t>Philips UIKit</t>
+  </si>
+  <si>
+    <t>User interface components that conform to the Philips Design Guidelines</t>
+  </si>
+  <si>
+    <t>https://atlas.natlab.research.philips.com/stash/projects/EHPMUCI/repos/philipsuikit/browse</t>
+  </si>
+  <si>
+    <t>http://pww.clscmgit.pic.philips.com:9000/scm/git/hor-localematch-ios</t>
+  </si>
+  <si>
+    <t>PhilipsPRX Client</t>
+  </si>
+  <si>
+    <t>http://pww.clscmgit.pic.philips.com:9000/scm/git/hor-prxclient-ios</t>
+  </si>
+  <si>
+    <t>PhilipsProductSelection</t>
+  </si>
+  <si>
+    <t>Component for Product Selection with Multiple  Products</t>
+  </si>
+  <si>
+    <t>https://(code1 id)@atlas.natlab.research.philips.com/bitbucket/scm/cc/productselection_ios.git</t>
+  </si>
+  <si>
+    <t>AppInfra</t>
+  </si>
+  <si>
+    <t>Component offers common functionalities related to vertical app which can be used in all Philips applications</t>
+  </si>
+  <si>
+    <t>https://(code1 id)@atlas.natlab.research.philips.com/bitbucket/scm/mail/app-infra_ios.git</t>
+  </si>
+  <si>
+    <t>Mockito</t>
+  </si>
+  <si>
+    <t>naveen@philips.com</t>
+  </si>
+  <si>
+    <t>Template 2.0  ver July 2016</t>
+  </si>
+  <si>
+    <t>The Component assembled with the 
+Micro Components</t>
+  </si>
+  <si>
+    <t>https://310190678@atlas.natlab.research.philips.com/bitbucket/scm/cc/productselection_android.git</t>
+  </si>
+  <si>
+    <t>compile(group: 'com.philips.cdp', name: 
+'AppInfra', version: '1.1.0', ext: 'aar')</t>
   </si>
   <si>
     <t>naveen@philips.com  
-&amp;
 ritesh.jha@philips.com</t>
+  </si>
+  <si>
+    <t>Tagging</t>
+  </si>
+  <si>
+    <t>This Component is the part of AppInfra 
+component, responsible for tracking/logging
+the android debug logs wrt to the 
+Configuration set from the vertical Apps.</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>This Component is the part of AppInfra 
+component, responsible for tracking the 
+application life cycle events and action events using  Adobe library</t>
   </si>
 </sst>
 </file>
@@ -889,8 +1009,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -918,7 +1038,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="10"/>
@@ -932,26 +1052,26 @@
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -959,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -974,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="20">
-        <v>42320</v>
+        <v>42577</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -982,7 +1102,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>17</v>
@@ -994,7 +1114,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="21"/>
@@ -1066,48 +1186,48 @@
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="11"/>
       <c r="G16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1122,16 +1242,16 @@
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="11"/>
@@ -1140,13 +1260,13 @@
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="9"/>
@@ -1166,16 +1286,16 @@
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="11"/>
@@ -1194,16 +1314,16 @@
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="11"/>
@@ -1212,16 +1332,16 @@
     </row>
     <row r="25" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="C25" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="11"/>
@@ -1230,7 +1350,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="12"/>
@@ -1242,49 +1362,49 @@
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="11"/>
       <c r="G27" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="11"/>
       <c r="G28" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="11"/>
       <c r="G29" s="26" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="H29" s="18"/>
     </row>
@@ -1298,14 +1418,20 @@
       <c r="G30" s="11"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="9"/>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="C31" s="12"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1318,14 +1444,20 @@
       <c r="G32" s="11"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="9"/>
+    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1338,14 +1470,20 @@
       <c r="G34" s="11"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="9"/>
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="C35" s="12"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,9 +1544,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2" display="ritesh.jha@philips.com"/>
-    <hyperlink ref="H6" r:id="rId3" display="ritesh.jha@philips.com"/>
-    <hyperlink ref="C22" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId2" display="ritesh.jha@philips.com"/>
+    <hyperlink ref="C22" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
     <hyperlink ref="G29" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1425,12 +1563,285 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
